--- a/bots/crawl_ch/output/clothes_2022-07-21.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-07-21.xlsx
@@ -531,24 +531,24 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6031467017</t>
+          <t>6075749001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz M</t>
+          <t>Avela Strumpfhose Top Size Hasel  11 - 12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-m/p/6031467017</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-11-12/p/6075749001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -558,12 +558,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -572,17 +572,17 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz M 24.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Hasel  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -684,39 +684,41 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6075749001</t>
+          <t>3875554005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  11 - 12</t>
+          <t>Naturaline Damen Bustier Schwarz M</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-11-12/p/6075749001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-schwarz-m/p/3875554005</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -725,42 +727,40 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Schwarz M 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3875554005</t>
+          <t>6031467017</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Schwarz M</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz M</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-schwarz-m/p/3875554005</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-m/p/6031467017</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -778,34 +778,34 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Schwarz M 14.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz M 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6365980012</t>
+          <t>6031467006</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -820,7 +820,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -829,164 +829,164 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6031467006</t>
+          <t>6077158006</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
+          <t>Avela Söckchen Ideal Noir One Size</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-noir-one-size/p/6077158006</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>24.95</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2.48/1ST</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S 24.95 Schweizer Franken</t>
+          <t>Avela Söckchen Ideal Noir One Size 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6077158006</t>
+          <t>3305779007</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Noir One Size</t>
+          <t>Naturaline Damen Panty S weiss</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-noir-one-size/p/6077158006</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-weiss/p/3305779007</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2.48/1ST</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Noir One Size 4.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty S weiss 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3875554009</t>
+          <t>3305289015</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Weiss L</t>
+          <t>Naturaline Herren Slip weiss L</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-weiss-l/p/3875554009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1009,37 +1009,35 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Weiss L 14.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3305779007</t>
+          <t>6365980012</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S weiss</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-weiss/p/3305779007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1057,34 +1055,34 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S weiss 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3305289015</t>
+          <t>6031467010</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-xxl/p/6031467010</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1099,7 +1097,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1108,34 +1106,34 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6031467010</t>
+          <t>6075745006</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-xxl/p/6031467010</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1145,12 +1143,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1159,49 +1157,51 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL 24.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6075745006</t>
+          <t>3875554009</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5</t>
+          <t>Naturaline Damen Bustier Weiss L</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-weiss-l/p/3875554009</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1210,17 +1210,17 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5 5.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Weiss L 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -1466,32 +1466,30 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5796044003</t>
+          <t>3450446005</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Taschenschirm türkis gepunktet</t>
+          <t>Naturaline Herren Shirt schwarz S</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-tuerkis-gepunktet/p/5796044003</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1500,7 +1498,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1509,164 +1507,166 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Taschenschirm türkis gepunktet 14.95 Schweizer Franken</t>
+          <t>Naturaline Herren Shirt schwarz S 49% Aktion 10.00 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6866483</t>
+          <t>5796044003</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M</t>
+          <t>Taschenschirm türkis gepunktet</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-tuerkis-gepunktet/p/5796044003</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tena</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>34.95/1ST</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
+          <t>Taschenschirm türkis gepunktet 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4091029003</t>
+          <t>6866483</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 35 - 38</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-35-38/p/4091029003</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tena</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>34.95/1ST</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 35 - 38 5.50 Schweizer Franken</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4091029004</t>
+          <t>4091029003</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 39 - 41</t>
+          <t>Avela Socken Cotton Euro 35 - 38</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-39-41/p/4091029004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-35-38/p/4091029003</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1689,37 +1689,35 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 39 - 41 5.50 Schweizer Franken</t>
+          <t>Avela Socken Cotton Euro 35 - 38 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4091029007</t>
+          <t>4091029004</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 35 - 38</t>
+          <t>Avela Socken Cotton Euro 39 - 41</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-35-38/p/4091029007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-39-41/p/4091029004</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1742,37 +1740,37 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 35 - 38 5.50 Schweizer Franken</t>
+          <t>Avela Socken Cotton Euro 39 - 41 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4091029008</t>
+          <t>4091029007</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 39 - 41</t>
+          <t>Avela Socken Cotton Noir 35 - 38</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-39-41/p/4091029008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-35-38/p/4091029007</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
         <v>2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1795,70 +1793,52 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 39 - 41 5.50 Schweizer Franken</t>
+          <t>Avela Socken Cotton Noir 35 - 38 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6077154003</t>
+          <t>4091029008</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Hasel One Size</t>
+          <t>Avela Socken Cotton Noir 39 - 41</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-hasel-one-size/p/6077154003</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-39-41/p/4091029008</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1.48/1ST</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
@@ -1866,37 +1846,39 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Hasel One Size 2.95 Schweizer Franken</t>
+          <t>Avela Socken Cotton Noir 39 - 41 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6075681007</t>
+          <t>6077154003</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5</t>
+          <t>Avela Söckchen Pure Hasel One Size</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-10-105/p/6075681007</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-hasel-one-size/p/6077154003</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1905,43 +1887,59 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1.48/1ST</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5 6.95 Schweizer Franken</t>
+          <t>Avela Söckchen Pure Hasel One Size 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6075681008</t>
+          <t>6075681007</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-11-12/p/6075681008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-10-105/p/6075681007</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1972,35 +1970,37 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6075681005</t>
+          <t>6075681008</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-85-9/p/6075681005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-11-12/p/6075681008</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2023,29 +2023,29 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6075681006</t>
+          <t>6075681005</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  9.5</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-95/p/6075681006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-85-9/p/6075681005</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2074,37 +2074,35 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  9.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6075681011</t>
+          <t>6075681006</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  9.5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-10-105/p/6075681011</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-95/p/6075681006</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2127,35 +2125,37 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  9.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6075681012</t>
+          <t>6075681011</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-11-12/p/6075681012</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-10-105/p/6075681011</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2178,29 +2178,29 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6075681009</t>
+          <t>6075681012</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-85-9/p/6075681009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-11-12/p/6075681012</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2229,29 +2229,29 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6075681010</t>
+          <t>6075681009</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  9.5</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-95/p/6075681010</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-85-9/p/6075681009</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2280,29 +2280,29 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  9.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6075681015</t>
+          <t>6075681010</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  9.5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-10-105/p/6075681015</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-95/p/6075681010</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2331,29 +2331,29 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  9.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6075681016</t>
+          <t>6075681015</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-11-12/p/6075681016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-10-105/p/6075681015</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2382,29 +2382,29 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6075681013</t>
+          <t>6075681016</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-85-9/p/6075681013</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-11-12/p/6075681016</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2433,37 +2433,35 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6075681014</t>
+          <t>6075681013</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  9.5</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-95/p/6075681014</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-85-9/p/6075681013</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2486,35 +2484,37 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  9.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6075745019</t>
+          <t>6075681014</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 10-10 1/2 nomade</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  9.5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-10-10-12-nomade/p/6075745019</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-95/p/6075681014</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -2537,29 +2537,29 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 10-10 1/2 nomade 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  9.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6075745020</t>
+          <t>6075745019</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 11-12 nomade</t>
+          <t>Avela Strumpfhose Madame 10-10 1/2 nomade</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-11-12-nomade/p/6075745020</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-10-10-12-nomade/p/6075745019</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2588,29 +2588,29 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 11-12 nomade 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame 10-10 1/2 nomade 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6075745018</t>
+          <t>6075745020</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 9- nomade</t>
+          <t>Avela Strumpfhose Madame 11-12 nomade</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-9-nomade/p/6075745018</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-11-12-nomade/p/6075745020</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2639,29 +2639,29 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 9- nomade 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame 11-12 nomade 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6075745008</t>
+          <t>6075745018</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  11 - 12</t>
+          <t>Avela Strumpfhose Madame 9- nomade</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-11-12/p/6075745008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-9-nomade/p/6075745018</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2690,29 +2690,29 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  11 - 12 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame 9- nomade 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6075745005</t>
+          <t>6075745008</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  8.5 - 9</t>
+          <t>Avela Strumpfhose Madame Hasel  11 - 12</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-85-9/p/6075745005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-11-12/p/6075745008</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -2741,29 +2741,29 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  8.5 - 9 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  11 - 12 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6075745017</t>
+          <t>6075745005</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Nomade  8.5 - 9</t>
+          <t>Avela Strumpfhose Madame Hasel  8.5 - 9</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-nomade-85-9/p/6075745017</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-85-9/p/6075745005</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -2792,29 +2792,29 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Nomade  8.5 - 9 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  8.5 - 9 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6076125011</t>
+          <t>6075745017</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5</t>
+          <t>Avela Strumpfhose Madame Nomade  8.5 - 9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-10-105/p/6076125011</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-nomade-85-9/p/6075745017</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -2843,29 +2843,29 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Nomade  8.5 - 9 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6076125012</t>
+          <t>6076125011</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-11-12/p/6076125012</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-10-105/p/6076125011</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2894,29 +2894,29 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  10 - 10.5 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6076125009</t>
+          <t>6076125012</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-85-9/p/6076125009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-11-12/p/6076125012</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -2945,29 +2945,29 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  11 - 12 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6076125010</t>
+          <t>6076125009</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  9.5</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-95/p/6076125010</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-85-9/p/6076125009</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -2996,37 +2996,35 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Natural  9.5 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  8.5 - 9 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6076125015</t>
+          <t>6076125010</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  9.5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-10-105/p/6076125015</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-natural-95/p/6076125010</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3049,35 +3047,37 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Natural  9.5 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6076125016</t>
+          <t>6076125015</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-11-12/p/6076125016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-10-105/p/6076125015</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3100,29 +3100,29 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  10 - 10.5 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6076125013</t>
+          <t>6076125016</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-85-9/p/6076125013</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-11-12/p/6076125016</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3151,29 +3151,29 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  11 - 12 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6076125014</t>
+          <t>6076125013</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  9.5</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-95/p/6076125014</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-85-9/p/6076125013</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3202,46 +3202,44 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Silhouette Noir  9.5 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  8.5 - 9 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5799901002</t>
+          <t>6076125014</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Magic Matic schwarz ecorepel</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  9.5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/magic-matic-schwarz-ecorepel/p/5799901002</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-silhouette-noir-95/p/6076125014</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>3</v>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -3250,39 +3248,39 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Magic Matic schwarz ecorepel 19.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Silhouette Noir  9.5 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5799902001</t>
+          <t>5799901002</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mini Matic schwarz ecorepel</t>
+          <t>Magic Matic schwarz ecorepel</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/mini-matic-schwarz-ecorepel/p/5799902001</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/magic-matic-schwarz-ecorepel/p/5799901002</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
@@ -3308,35 +3306,37 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Mini Matic schwarz ecorepel 19.95 Schweizer Franken</t>
+          <t>Magic Matic schwarz ecorepel 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3875554004</t>
+          <t>5799902001</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Schwarz S</t>
+          <t>Mini Matic schwarz ecorepel</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-schwarz-s/p/3875554004</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/mini-matic-schwarz-ecorepel/p/5799902001</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -3354,34 +3354,34 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Schwarz S 14.95 Schweizer Franken</t>
+          <t>Mini Matic schwarz ecorepel 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3875554007</t>
+          <t>3875554004</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Weiss S</t>
+          <t>Naturaline Damen Bustier Schwarz S</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-weiss-s/p/3875554007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-schwarz-s/p/3875554004</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3410,29 +3410,29 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Weiss S 14.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Schwarz S 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3305484008</t>
+          <t>3875554007</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M</t>
+          <t>Naturaline Damen Bustier Weiss S</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-weiss-s/p/3875554007</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -3461,29 +3461,29 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M 7.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Weiss S 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4322745004</t>
+          <t>3305484008</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz L</t>
+          <t>Naturaline Damen Slip weiss M</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-l/p/4322745004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -3512,29 +3512,29 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz L 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip weiss M 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4322745002</t>
+          <t>4322745004</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz S</t>
+          <t>Naturaline Damen String schwarz L</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-s/p/4322745002</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-l/p/4322745004</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -3563,29 +3563,29 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz S 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen String schwarz L 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4322745007</t>
+          <t>4322745002</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Naturaline Damen String weiss M</t>
+          <t>Naturaline Damen String schwarz S</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-weiss-m/p/4322745007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-s/p/4322745002</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -3614,29 +3614,29 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Naturaline Damen String weiss M 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen String schwarz S 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3450446005</t>
+          <t>4322745007</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S</t>
+          <t>Naturaline Damen String weiss M</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-weiss-m/p/4322745007</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -3660,17 +3660,17 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Naturaline Damen String weiss M 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-21 07:04:40</t>
+          <t>2022-07-21 20:57:35</t>
         </is>
       </c>
     </row>
